--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1074.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1074.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.062647609735802</v>
+        <v>1.064729348866237</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.387750219943606</v>
+        <v>1.394269053775038</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.6046231293851718</v>
+        <v>0.6038333290028873</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9485377250905761</v>
+        <v>0.9539389626217913</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.6046231293851718</v>
+        <v>0.6038333290028873</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9485377250905761</v>
+        <v>0.9539389626217913</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.6046231293851718</v>
+        <v>0.6038333290028873</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9485377250905761</v>
+        <v>0.9539389626217913</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>1.145977167427423</v>
+        <v>1.150614058551086</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9286344483986381</v>
+        <v>0.9339849052871513</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>1.145977167427423</v>
+        <v>1.150614058551086</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9286344483986381</v>
+        <v>0.9339849052871513</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.190018594943603</v>
+        <v>1.193947977317304</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.01778685250676096</v>
+        <v>0.01679554815893488</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.050196812981069</v>
+        <v>1.052972465154982</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.7538562427642959</v>
+        <v>0.7593293734504554</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9485377250905761</v>
+        <v>0.9539389626217913</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9398217755949627</v>
+        <v>0.9452327643325102</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.8</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9311058260993492</v>
+        <v>0.9365265660432291</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>1.145977167427423</v>
+        <v>1.150614058551086</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9286344483986381</v>
+        <v>0.9339849052871513</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>1.145977167427423</v>
+        <v>1.150614058551086</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8308124893295142</v>
+        <v>0.836810926648838</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.02371580334234795</v>
+        <v>0.02239406421191318</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.037746016226337</v>
+        <v>1.041215581443728</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.7311819893827505</v>
+        <v>0.7366177154887572</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9485377250905761</v>
+        <v>0.9539389626217913</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8681476421825622</v>
+        <v>0.8739714794711015</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7877575592745485</v>
+        <v>0.7940039963204119</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>1.145977167427423</v>
+        <v>1.150614058551086</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9286344483986381</v>
+        <v>0.9339849052871513</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>1.145977167427423</v>
+        <v>1.150614058551086</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7877575592745484</v>
+        <v>0.794003996320412</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.02964475417793494</v>
+        <v>0.02799258026489147</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.029462445714942</v>
+        <v>1.033686373750924</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.03358931156431352</v>
+        <v>0.03157791726146496</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>1.008597820735565</v>
+        <v>1.013393610840513</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.04352484726877844</v>
+        <v>0.04124113769499391</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9742579542400582</v>
+        <v>0.9794301345889083</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.05987716464759135</v>
+        <v>0.05741422162432945</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.9311058260993492</v>
+        <v>0.9365265660432291</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.08042579709554801</v>
+        <v>0.07784449236036714</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8788515633775822</v>
+        <v>0.8843888273714222</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>1.145977167427423</v>
+        <v>1.150614058551086</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1053087793440085</v>
+        <v>0.1026719869659895</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.8191139339586613</v>
+        <v>0.8246591683009075</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1337552695434947</v>
+        <v>0.1311146817614727</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.7538562427642959</v>
+        <v>0.7593293734504554</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>22.91954334854847</v>
+        <v>23.01228117102172</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1648303605884306</v>
+        <v>0.1622241078807356</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.7311819893827505</v>
+        <v>0.7366177154887572</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>1.095977167427423</v>
+        <v>1.100614058551086</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.111167828167256</v>
+        <v>0.104972175993343</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.111167828167256</v>
+        <v>0.104972175993343</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>1</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>1</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1111678281672561</v>
+        <v>0.1049721759933431</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2223356563345121</v>
+        <v>0.2099443519866861</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.2223356563345122</v>
+        <v>0.2099443519866861</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.4446713126690243</v>
+        <v>0.4198887039733722</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>0.2958418039783937</v>
+        <v>0.2689002747430115</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>0.740513116647418</v>
+        <v>0.6887889787163837</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>1.490330355669738</v>
+        <v>1.449483065029344</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>2.230843472317156</v>
+        <v>2.138272043745728</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>4.905695213643872</v>
+        <v>4.851925178800662</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>7.136538685961027</v>
+        <v>6.99019722254639</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>12.329179468774</v>
+        <v>12.25816244162261</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>19.46571815473503</v>
+        <v>19.248359664169</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>29.85957869815264</v>
+        <v>29.79299352674682</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>49.32529685288767</v>
+        <v>49.04135319091582</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.27157647876683</v>
+        <v>68.26246750915971</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>117.5968733316545</v>
+        <v>117.3038207000755</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>149.1604370156921</v>
+        <v>149.3252453724619</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>266.7573103473466</v>
+        <v>266.6290660725375</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>77.74029730815579</v>
+        <v>77.86854158296495</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
